--- a/Width_Variance_data.xlsx
+++ b/Width_Variance_data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61452\Desktop\Carbon-Fiber-Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2C95DD-7E85-40DB-A849-ED9E4F5057F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBA7DC0-52C7-443F-A14F-7AD9E73B6922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21060" yWindow="4248" windowWidth="23040" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10464" yWindow="300" windowWidth="15360" windowHeight="11292" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>R = 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,12 +81,48 @@
   <si>
     <t>R</t>
   </si>
+  <si>
+    <t>Radius 2.5</t>
+  </si>
+  <si>
+    <t>Radius 5</t>
+  </si>
+  <si>
+    <t>Radius 10</t>
+  </si>
+  <si>
+    <t>Printing Temperature</t>
+  </si>
+  <si>
+    <t>Printing Speed</t>
+  </si>
+  <si>
+    <t>Fibre Feed Rate</t>
+  </si>
+  <si>
+    <t>Nylon Feed Rate</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +137,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,12 +168,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +478,7 @@
   <dimension ref="C1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F18"/>
+      <selection activeCell="E27" sqref="E27:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1291,11 +1364,834 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714320E4-369A-46D1-8928-BA36BAC7FFBE}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>31.014461110105653</v>
+      </c>
+      <c r="C2">
+        <v>36.854155404097845</v>
+      </c>
+      <c r="D2">
+        <v>23.715714974227296</v>
+      </c>
+      <c r="E2">
+        <v>240</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="G2">
+        <v>0.8</v>
+      </c>
+      <c r="H2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>38.889187536059552</v>
+      </c>
+      <c r="C3">
+        <v>28.828461344051291</v>
+      </c>
+      <c r="D3">
+        <v>27.630071182824175</v>
+      </c>
+      <c r="E3">
+        <v>240</v>
+      </c>
+      <c r="F3">
+        <v>280</v>
+      </c>
+      <c r="G3">
+        <v>0.9</v>
+      </c>
+      <c r="H3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>23.688997486481508</v>
+      </c>
+      <c r="C4">
+        <v>33.217336604709615</v>
+      </c>
+      <c r="D4">
+        <v>30.046082872125442</v>
+      </c>
+      <c r="E4">
+        <v>240</v>
+      </c>
+      <c r="F4">
+        <v>440</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>24.755501778043779</v>
+      </c>
+      <c r="C5">
+        <v>30.921225423580658</v>
+      </c>
+      <c r="D5">
+        <v>32.268200830859818</v>
+      </c>
+      <c r="E5">
+        <v>240</v>
+      </c>
+      <c r="F5">
+        <v>600</v>
+      </c>
+      <c r="G5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>28.835850720702997</v>
+      </c>
+      <c r="C6">
+        <v>29.92935390314079</v>
+      </c>
+      <c r="D6">
+        <v>29.766213715780975</v>
+      </c>
+      <c r="E6">
+        <v>250</v>
+      </c>
+      <c r="F6">
+        <v>120</v>
+      </c>
+      <c r="G6">
+        <v>0.9</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>33.976472596499235</v>
+      </c>
+      <c r="C7">
+        <v>22.507422153944354</v>
+      </c>
+      <c r="D7">
+        <v>28.63212465595236</v>
+      </c>
+      <c r="E7">
+        <v>250</v>
+      </c>
+      <c r="F7">
+        <v>280</v>
+      </c>
+      <c r="G7">
+        <v>0.8</v>
+      </c>
+      <c r="H7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>23.059432878852885</v>
+      </c>
+      <c r="C8">
+        <v>27.577401931703665</v>
+      </c>
+      <c r="D8">
+        <v>31.058653810350361</v>
+      </c>
+      <c r="E8">
+        <v>250</v>
+      </c>
+      <c r="F8">
+        <v>440</v>
+      </c>
+      <c r="G8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>37.989938035222352</v>
+      </c>
+      <c r="C9">
+        <v>35.093507628359212</v>
+      </c>
+      <c r="D9">
+        <v>21.907565345323782</v>
+      </c>
+      <c r="E9">
+        <v>250</v>
+      </c>
+      <c r="F9">
+        <v>600</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>26.864525232968223</v>
+      </c>
+      <c r="C10">
+        <v>32.452476802090416</v>
+      </c>
+      <c r="D10">
+        <v>29.802309367210377</v>
+      </c>
+      <c r="E10">
+        <v>260</v>
+      </c>
+      <c r="F10">
+        <v>120</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>21.685695705776013</v>
+      </c>
+      <c r="C11">
+        <v>27.344681053557487</v>
+      </c>
+      <c r="D11">
+        <v>34.388447634035096</v>
+      </c>
+      <c r="E11">
+        <v>260</v>
+      </c>
+      <c r="F11">
+        <v>280</v>
+      </c>
+      <c r="G11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>29.179665732603929</v>
+      </c>
+      <c r="C12">
+        <v>34.662038806960055</v>
+      </c>
+      <c r="D12">
+        <v>35.769900454421673</v>
+      </c>
+      <c r="E12">
+        <v>260</v>
+      </c>
+      <c r="F12">
+        <v>440</v>
+      </c>
+      <c r="G12">
+        <v>0.8</v>
+      </c>
+      <c r="H12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>34.409320934190063</v>
+      </c>
+      <c r="C13">
+        <v>31.419352480683088</v>
+      </c>
+      <c r="D13">
+        <v>24.094007554078448</v>
+      </c>
+      <c r="E13">
+        <v>260</v>
+      </c>
+      <c r="F13">
+        <v>600</v>
+      </c>
+      <c r="G13">
+        <v>0.9</v>
+      </c>
+      <c r="H13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>25.048169792779159</v>
+      </c>
+      <c r="C14">
+        <v>25.651550899146244</v>
+      </c>
+      <c r="D14">
+        <v>27.205773969431117</v>
+      </c>
+      <c r="E14">
+        <v>270</v>
+      </c>
+      <c r="F14">
+        <v>120</v>
+      </c>
+      <c r="G14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>30.073074778201647</v>
+      </c>
+      <c r="C15">
+        <v>32.223834227011558</v>
+      </c>
+      <c r="D15">
+        <v>31.357441014485552</v>
+      </c>
+      <c r="E15">
+        <v>270</v>
+      </c>
+      <c r="F15">
+        <v>280</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>34.254608258822209</v>
+      </c>
+      <c r="C16">
+        <v>33.259547128342007</v>
+      </c>
+      <c r="D16">
+        <v>31.559529784043786</v>
+      </c>
+      <c r="E16">
+        <v>270</v>
+      </c>
+      <c r="F16">
+        <v>440</v>
+      </c>
+      <c r="G16">
+        <v>0.9</v>
+      </c>
+      <c r="H16">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>27.207623793892743</v>
+      </c>
+      <c r="C17">
+        <v>17.884849804307365</v>
+      </c>
+      <c r="D17">
+        <v>31.027952820298161</v>
+      </c>
+      <c r="E17">
+        <v>270</v>
+      </c>
+      <c r="F17">
+        <v>600</v>
+      </c>
+      <c r="G17">
+        <v>0.8</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDA554E-7530-4532-95CC-6A65BBA5AD4F}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>29.5870369776726</v>
+      </c>
+      <c r="C2" s="2">
+        <v>30.9654235578193</v>
+      </c>
+      <c r="D2" s="2">
+        <v>28.034801901384501</v>
+      </c>
+      <c r="E2" s="2">
+        <v>29.145869155923901</v>
+      </c>
+      <c r="F2">
+        <f>MAX(B2:E2)-MIN(B2:E2)</f>
+        <v>2.9306216564347984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>27.940751714139001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>31.1561076541341</v>
+      </c>
+      <c r="D3" s="2">
+        <v>27.545676089190099</v>
+      </c>
+      <c r="E3" s="2">
+        <v>31.090596135337201</v>
+      </c>
+      <c r="F3">
+        <f>MAX(B3:E3)-MIN(B3:E3)</f>
+        <v>3.6104315649440011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>30.344555808275299</v>
+      </c>
+      <c r="C4" s="2">
+        <v>34.097241862443703</v>
+      </c>
+      <c r="D4" s="2">
+        <v>29.6541338832184</v>
+      </c>
+      <c r="E4" s="2">
+        <v>23.6372000388629</v>
+      </c>
+      <c r="F4">
+        <f>MAX(B4:E4)-MIN(B4:E4)</f>
+        <v>10.460041823580802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>29.639072425337499</v>
+      </c>
+      <c r="C5" s="2">
+        <v>32.776740274166201</v>
+      </c>
+      <c r="D5" s="2">
+        <v>25.354541926713299</v>
+      </c>
+      <c r="E5" s="2">
+        <v>29.962776966583299</v>
+      </c>
+      <c r="F5">
+        <f>MAX(B5:E5)-MIN(B5:E5)</f>
+        <v>7.4221983474529019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>32.455294694109803</v>
+      </c>
+      <c r="C7" s="2">
+        <v>28.776921404286998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>31.469637285822699</v>
+      </c>
+      <c r="E7" s="2">
+        <v>27.254945514701699</v>
+      </c>
+      <c r="F7">
+        <f>MAX(B7:E7)-MIN(B7:E7)</f>
+        <v>5.2003491794081036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>31.221884252118802</v>
+      </c>
+      <c r="C8" s="2">
+        <v>27.7260996946411</v>
+      </c>
+      <c r="D8" s="2">
+        <v>32.179081117928803</v>
+      </c>
+      <c r="E8" s="2">
+        <v>28.829733834232499</v>
+      </c>
+      <c r="F8">
+        <f>MAX(B8:E8)-MIN(B8:E8)</f>
+        <v>4.452981423287703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>27.977116542327401</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30.859178714054199</v>
+      </c>
+      <c r="D9" s="2">
+        <v>33.2467888155427</v>
+      </c>
+      <c r="E9" s="2">
+        <v>27.873714826996999</v>
+      </c>
+      <c r="F9">
+        <f>MAX(B9:E9)-MIN(B9:E9)</f>
+        <v>5.373073988545702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>32.018686010873999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>31.058889669629199</v>
+      </c>
+      <c r="D10" s="2">
+        <v>27.094055341428799</v>
+      </c>
+      <c r="E10" s="2">
+        <v>29.785167876989298</v>
+      </c>
+      <c r="F10">
+        <f>MAX(B10:E10)-MIN(B10:E10)</f>
+        <v>4.9246306694452002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>28.4150174650091</v>
+      </c>
+      <c r="C12" s="2">
+        <v>27.8411393818518</v>
+      </c>
+      <c r="D12" s="2">
+        <v>31.013666252436298</v>
+      </c>
+      <c r="E12" s="2">
+        <v>30.287674397064599</v>
+      </c>
+      <c r="F12">
+        <f>MAX(B12:E12)-MIN(B12:E12)</f>
+        <v>3.1725268705844982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>27.622503006662399</v>
+      </c>
+      <c r="C13" s="2">
+        <v>30.5020211218242</v>
+      </c>
+      <c r="D13" s="2">
+        <v>32.108541730235302</v>
+      </c>
+      <c r="E13" s="2">
+        <v>27.32443163764</v>
+      </c>
+      <c r="F13">
+        <f>MAX(B13:E13)-MIN(B13:E13)</f>
+        <v>4.7841100925953022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>29.786423226224802</v>
+      </c>
+      <c r="C14" s="2">
+        <v>28.262455559181799</v>
+      </c>
+      <c r="D14" s="2">
+        <v>28.2783496497862</v>
+      </c>
+      <c r="E14" s="2">
+        <v>31.2302690611691</v>
+      </c>
+      <c r="F14">
+        <f>MAX(B14:E14)-MIN(B14:E14)</f>
+        <v>2.9678135019873011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <v>27.556454338285398</v>
+      </c>
+      <c r="C15" s="2">
+        <v>28.128327738000099</v>
+      </c>
+      <c r="D15" s="2">
+        <v>31.307174260559901</v>
+      </c>
+      <c r="E15" s="2">
+        <v>30.565541159516499</v>
+      </c>
+      <c r="F15">
+        <f>MAX(B15:E15)-MIN(B15:E15)</f>
+        <v>3.7507199222745022</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:E5">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:E15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA1C544-DD84-4C06-9130-5E458A8A0862}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Width_Variance_data.xlsx
+++ b/Width_Variance_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61452\Desktop\Carbon-Fiber-Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBA7DC0-52C7-443F-A14F-7AD9E73B6922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080F7CBB-2D94-43A4-9B19-9744D34E78C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10464" yWindow="300" windowWidth="15360" windowHeight="11292" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16308" yWindow="2604" windowWidth="15360" windowHeight="11292" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="SN Ratio table" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
     <t>R = 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +118,12 @@
   <si>
     <t>Range</t>
   </si>
+  <si>
+    <t>SN ratio</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -183,17 +190,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,7 +1389,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1822,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDA554E-7530-4532-95CC-6A65BBA5AD4F}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2145,8 +2166,204 @@
         <v>3.7507199222745022</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>30.152449712263799</v>
+      </c>
+      <c r="C17" s="2">
+        <v>29.194494781319399</v>
+      </c>
+      <c r="D17" s="2">
+        <v>30.172701813214498</v>
+      </c>
+      <c r="E17" s="2">
+        <v>28.8961630225634</v>
+      </c>
+      <c r="F17">
+        <f>MAX(B17:E17)-MIN(B17:E17)</f>
+        <v>1.2765387906510988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>28.928379657640001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>29.794742823533099</v>
+      </c>
+      <c r="D18" s="2">
+        <v>30.611099645784702</v>
+      </c>
+      <c r="E18" s="2">
+        <v>29.081587202403199</v>
+      </c>
+      <c r="F18">
+        <f>MAX(B18:E18)-MIN(B18:E18)</f>
+        <v>1.6827199881447008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>29.369365192275801</v>
+      </c>
+      <c r="C19" s="2">
+        <v>31.0729587118932</v>
+      </c>
+      <c r="D19" s="2">
+        <v>30.3930907828491</v>
+      </c>
+      <c r="E19" s="2">
+        <v>27.580394642342998</v>
+      </c>
+      <c r="F19">
+        <f>MAX(B19:E19)-MIN(B19:E19)</f>
+        <v>3.4925640695502018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>29.7380709248323</v>
+      </c>
+      <c r="C20" s="2">
+        <v>30.6546525605985</v>
+      </c>
+      <c r="D20" s="2">
+        <v>27.918590509567299</v>
+      </c>
+      <c r="E20" s="2">
+        <v>30.104495334363101</v>
+      </c>
+      <c r="F20">
+        <f>MAX(B20:E20)-MIN(B20:E20)</f>
+        <v>2.736062051031201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E5">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:E15">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:E25">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2158,7 +2375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E10">
+  <conditionalFormatting sqref="B27:E30">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2170,7 +2387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:E15">
+  <conditionalFormatting sqref="B17:E20">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2183,10 +2400,1153 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27B5D06-0B6E-44B5-B0F1-7B6D17E27098}">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>31.014461110105653</v>
+      </c>
+      <c r="C2">
+        <v>240</v>
+      </c>
+      <c r="D2">
+        <v>120</v>
+      </c>
+      <c r="E2">
+        <v>0.8</v>
+      </c>
+      <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>38.889187536059552</v>
+      </c>
+      <c r="C3">
+        <v>240</v>
+      </c>
+      <c r="D3">
+        <v>280</v>
+      </c>
+      <c r="E3">
+        <v>0.9</v>
+      </c>
+      <c r="F3">
+        <v>0.8</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>23.688997486481508</v>
+      </c>
+      <c r="C4">
+        <v>240</v>
+      </c>
+      <c r="D4">
+        <v>440</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>24.755501778043779</v>
+      </c>
+      <c r="C5">
+        <v>240</v>
+      </c>
+      <c r="D5">
+        <v>600</v>
+      </c>
+      <c r="E5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5">
+        <v>1.2</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>28.835850720702997</v>
+      </c>
+      <c r="C6">
+        <v>250</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>0.9</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>33.976472596499235</v>
+      </c>
+      <c r="C7">
+        <v>250</v>
+      </c>
+      <c r="D7">
+        <v>280</v>
+      </c>
+      <c r="E7">
+        <v>0.8</v>
+      </c>
+      <c r="F7">
+        <v>1.2</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>23.059432878852885</v>
+      </c>
+      <c r="C8">
+        <v>250</v>
+      </c>
+      <c r="D8">
+        <v>440</v>
+      </c>
+      <c r="E8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>37.989938035222352</v>
+      </c>
+      <c r="C9">
+        <v>250</v>
+      </c>
+      <c r="D9">
+        <v>600</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.8</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>26.864525232968223</v>
+      </c>
+      <c r="C10">
+        <v>260</v>
+      </c>
+      <c r="D10">
+        <v>120</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1.2</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>21.685695705776013</v>
+      </c>
+      <c r="C11">
+        <v>260</v>
+      </c>
+      <c r="D11">
+        <v>280</v>
+      </c>
+      <c r="E11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>29.179665732603929</v>
+      </c>
+      <c r="C12">
+        <v>260</v>
+      </c>
+      <c r="D12">
+        <v>440</v>
+      </c>
+      <c r="E12">
+        <v>0.8</v>
+      </c>
+      <c r="F12">
+        <v>0.8</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>34.409320934190063</v>
+      </c>
+      <c r="C13">
+        <v>260</v>
+      </c>
+      <c r="D13">
+        <v>600</v>
+      </c>
+      <c r="E13">
+        <v>0.9</v>
+      </c>
+      <c r="F13">
+        <v>0.6</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>25.048169792779159</v>
+      </c>
+      <c r="C14">
+        <v>270</v>
+      </c>
+      <c r="D14">
+        <v>120</v>
+      </c>
+      <c r="E14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.8</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>30.073074778201647</v>
+      </c>
+      <c r="C15">
+        <v>270</v>
+      </c>
+      <c r="D15">
+        <v>280</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.6</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>34.254608258822209</v>
+      </c>
+      <c r="C16">
+        <v>270</v>
+      </c>
+      <c r="D16">
+        <v>440</v>
+      </c>
+      <c r="E16">
+        <v>0.9</v>
+      </c>
+      <c r="F16">
+        <v>1.2</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>27.207623793892743</v>
+      </c>
+      <c r="C17">
+        <v>270</v>
+      </c>
+      <c r="D17">
+        <v>600</v>
+      </c>
+      <c r="E17">
+        <v>0.8</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>36.854155404097845</v>
+      </c>
+      <c r="C18">
+        <v>240</v>
+      </c>
+      <c r="D18">
+        <v>120</v>
+      </c>
+      <c r="E18">
+        <v>0.8</v>
+      </c>
+      <c r="F18">
+        <v>0.6</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>28.828461344051291</v>
+      </c>
+      <c r="C19">
+        <v>240</v>
+      </c>
+      <c r="D19">
+        <v>280</v>
+      </c>
+      <c r="E19">
+        <v>0.9</v>
+      </c>
+      <c r="F19">
+        <v>0.8</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>33.217336604709615</v>
+      </c>
+      <c r="C20">
+        <v>240</v>
+      </c>
+      <c r="D20">
+        <v>440</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>30.921225423580658</v>
+      </c>
+      <c r="C21">
+        <v>240</v>
+      </c>
+      <c r="D21">
+        <v>600</v>
+      </c>
+      <c r="E21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F21">
+        <v>1.2</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>29.92935390314079</v>
+      </c>
+      <c r="C22">
+        <v>250</v>
+      </c>
+      <c r="D22">
+        <v>120</v>
+      </c>
+      <c r="E22">
+        <v>0.9</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>22.507422153944354</v>
+      </c>
+      <c r="C23">
+        <v>250</v>
+      </c>
+      <c r="D23">
+        <v>280</v>
+      </c>
+      <c r="E23">
+        <v>0.8</v>
+      </c>
+      <c r="F23">
+        <v>1.2</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>27.577401931703665</v>
+      </c>
+      <c r="C24">
+        <v>250</v>
+      </c>
+      <c r="D24">
+        <v>440</v>
+      </c>
+      <c r="E24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.6</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>35.093507628359212</v>
+      </c>
+      <c r="C25">
+        <v>250</v>
+      </c>
+      <c r="D25">
+        <v>600</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.8</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>32.452476802090416</v>
+      </c>
+      <c r="C26">
+        <v>260</v>
+      </c>
+      <c r="D26">
+        <v>120</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1.2</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>27.344681053557487</v>
+      </c>
+      <c r="C27">
+        <v>260</v>
+      </c>
+      <c r="D27">
+        <v>280</v>
+      </c>
+      <c r="E27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>34.662038806960055</v>
+      </c>
+      <c r="C28">
+        <v>260</v>
+      </c>
+      <c r="D28">
+        <v>440</v>
+      </c>
+      <c r="E28">
+        <v>0.8</v>
+      </c>
+      <c r="F28">
+        <v>0.8</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>31.419352480683088</v>
+      </c>
+      <c r="C29">
+        <v>260</v>
+      </c>
+      <c r="D29">
+        <v>600</v>
+      </c>
+      <c r="E29">
+        <v>0.9</v>
+      </c>
+      <c r="F29">
+        <v>0.6</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>25.651550899146244</v>
+      </c>
+      <c r="C30">
+        <v>270</v>
+      </c>
+      <c r="D30">
+        <v>120</v>
+      </c>
+      <c r="E30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.8</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>32.223834227011558</v>
+      </c>
+      <c r="C31">
+        <v>270</v>
+      </c>
+      <c r="D31">
+        <v>280</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.6</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>33.259547128342007</v>
+      </c>
+      <c r="C32">
+        <v>270</v>
+      </c>
+      <c r="D32">
+        <v>440</v>
+      </c>
+      <c r="E32">
+        <v>0.9</v>
+      </c>
+      <c r="F32">
+        <v>1.2</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>17.884849804307365</v>
+      </c>
+      <c r="C33">
+        <v>270</v>
+      </c>
+      <c r="D33">
+        <v>600</v>
+      </c>
+      <c r="E33">
+        <v>0.8</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>23.715714974227296</v>
+      </c>
+      <c r="C34">
+        <v>240</v>
+      </c>
+      <c r="D34">
+        <v>120</v>
+      </c>
+      <c r="E34">
+        <v>0.8</v>
+      </c>
+      <c r="F34">
+        <v>0.6</v>
+      </c>
+      <c r="G34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>27.630071182824175</v>
+      </c>
+      <c r="C35">
+        <v>240</v>
+      </c>
+      <c r="D35">
+        <v>280</v>
+      </c>
+      <c r="E35">
+        <v>0.9</v>
+      </c>
+      <c r="F35">
+        <v>0.8</v>
+      </c>
+      <c r="G35">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>30.046082872125442</v>
+      </c>
+      <c r="C36">
+        <v>240</v>
+      </c>
+      <c r="D36">
+        <v>440</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>32.268200830859818</v>
+      </c>
+      <c r="C37">
+        <v>240</v>
+      </c>
+      <c r="D37">
+        <v>600</v>
+      </c>
+      <c r="E37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F37">
+        <v>1.2</v>
+      </c>
+      <c r="G37">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>29.766213715780975</v>
+      </c>
+      <c r="C38">
+        <v>250</v>
+      </c>
+      <c r="D38">
+        <v>120</v>
+      </c>
+      <c r="E38">
+        <v>0.9</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>28.63212465595236</v>
+      </c>
+      <c r="C39">
+        <v>250</v>
+      </c>
+      <c r="D39">
+        <v>280</v>
+      </c>
+      <c r="E39">
+        <v>0.8</v>
+      </c>
+      <c r="F39">
+        <v>1.2</v>
+      </c>
+      <c r="G39">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>31.058653810350361</v>
+      </c>
+      <c r="C40">
+        <v>250</v>
+      </c>
+      <c r="D40">
+        <v>440</v>
+      </c>
+      <c r="E40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F40">
+        <v>0.6</v>
+      </c>
+      <c r="G40">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>21.907565345323782</v>
+      </c>
+      <c r="C41">
+        <v>250</v>
+      </c>
+      <c r="D41">
+        <v>600</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0.8</v>
+      </c>
+      <c r="G41">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>29.802309367210377</v>
+      </c>
+      <c r="C42">
+        <v>260</v>
+      </c>
+      <c r="D42">
+        <v>120</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1.2</v>
+      </c>
+      <c r="G42">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>34.388447634035096</v>
+      </c>
+      <c r="C43">
+        <v>260</v>
+      </c>
+      <c r="D43">
+        <v>280</v>
+      </c>
+      <c r="E43">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>35.769900454421673</v>
+      </c>
+      <c r="C44">
+        <v>260</v>
+      </c>
+      <c r="D44">
+        <v>440</v>
+      </c>
+      <c r="E44">
+        <v>0.8</v>
+      </c>
+      <c r="F44">
+        <v>0.8</v>
+      </c>
+      <c r="G44">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>24.094007554078448</v>
+      </c>
+      <c r="C45">
+        <v>260</v>
+      </c>
+      <c r="D45">
+        <v>600</v>
+      </c>
+      <c r="E45">
+        <v>0.9</v>
+      </c>
+      <c r="F45">
+        <v>0.6</v>
+      </c>
+      <c r="G45">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>27.205773969431117</v>
+      </c>
+      <c r="C46">
+        <v>270</v>
+      </c>
+      <c r="D46">
+        <v>120</v>
+      </c>
+      <c r="E46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F46">
+        <v>0.8</v>
+      </c>
+      <c r="G46">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>31.357441014485552</v>
+      </c>
+      <c r="C47">
+        <v>270</v>
+      </c>
+      <c r="D47">
+        <v>280</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0.6</v>
+      </c>
+      <c r="G47">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>31.559529784043786</v>
+      </c>
+      <c r="C48">
+        <v>270</v>
+      </c>
+      <c r="D48">
+        <v>440</v>
+      </c>
+      <c r="E48">
+        <v>0.9</v>
+      </c>
+      <c r="F48">
+        <v>1.2</v>
+      </c>
+      <c r="G48">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>31.027952820298161</v>
+      </c>
+      <c r="C49">
+        <v>270</v>
+      </c>
+      <c r="D49">
+        <v>600</v>
+      </c>
+      <c r="E49">
+        <v>0.8</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA1C544-DD84-4C06-9130-5E458A8A0862}">
   <dimension ref="A1:E49"/>
   <sheetViews>

--- a/Width_Variance_data.xlsx
+++ b/Width_Variance_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61452\Desktop\Carbon-Fiber-Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080F7CBB-2D94-43A4-9B19-9744D34E78C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE44616-5F4E-414E-BD20-58B1DA4AB017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16308" yWindow="2604" windowWidth="15360" windowHeight="11292" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2736" windowWidth="15360" windowHeight="11292" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
   <si>
     <t>R = 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,11 +124,32 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Factor Description</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -205,16 +226,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1843,491 +1876,570 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDA554E-7530-4532-95CC-6A65BBA5AD4F}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="20.21875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C3" s="5">
         <v>29.5870369776726</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D3" s="5">
         <v>30.9654235578193</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E3" s="5">
         <v>28.034801901384501</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F3" s="5">
         <v>29.145869155923901</v>
       </c>
-      <c r="F2">
-        <f>MAX(B2:E2)-MIN(B2:E2)</f>
+      <c r="G3" s="6">
+        <f>MAX(C3:F3)-MIN(C3:F3)</f>
         <v>2.9306216564347984</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C4" s="5">
         <v>27.940751714139001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D4" s="5">
         <v>31.1561076541341</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E4" s="5">
         <v>27.545676089190099</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F4" s="5">
         <v>31.090596135337201</v>
       </c>
-      <c r="F3">
-        <f>MAX(B3:E3)-MIN(B3:E3)</f>
+      <c r="G4" s="6">
+        <f>MAX(C4:F4)-MIN(C4:F4)</f>
         <v>3.6104315649440011</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C5" s="5">
         <v>30.344555808275299</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D5" s="5">
         <v>34.097241862443703</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E5" s="5">
         <v>29.6541338832184</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F5" s="5">
         <v>23.6372000388629</v>
       </c>
-      <c r="F4">
-        <f>MAX(B4:E4)-MIN(B4:E4)</f>
+      <c r="G5" s="6">
+        <f>MAX(C5:F5)-MIN(C5:F5)</f>
         <v>10.460041823580802</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C6" s="5">
         <v>29.639072425337499</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D6" s="5">
         <v>32.776740274166201</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E6" s="5">
         <v>25.354541926713299</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F6" s="5">
         <v>29.962776966583299</v>
       </c>
-      <c r="F5">
-        <f>MAX(B5:E5)-MIN(B5:E5)</f>
+      <c r="G6" s="6">
+        <f>MAX(C6:F6)-MIN(C6:F6)</f>
         <v>7.4221983474529019</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C8" s="5">
         <v>32.455294694109803</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D8" s="5">
         <v>28.776921404286998</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E8" s="5">
         <v>31.469637285822699</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="5">
         <v>27.254945514701699</v>
       </c>
-      <c r="F7">
-        <f>MAX(B7:E7)-MIN(B7:E7)</f>
+      <c r="G8" s="6">
+        <f>MAX(C8:F8)-MIN(C8:F8)</f>
         <v>5.2003491794081036</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C9" s="5">
         <v>31.221884252118802</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D9" s="5">
         <v>27.7260996946411</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E9" s="5">
         <v>32.179081117928803</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F9" s="5">
         <v>28.829733834232499</v>
       </c>
-      <c r="F8">
-        <f>MAX(B8:E8)-MIN(B8:E8)</f>
+      <c r="G9" s="6">
+        <f>MAX(C9:F9)-MIN(C9:F9)</f>
         <v>4.452981423287703</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C10" s="5">
         <v>27.977116542327401</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D10" s="5">
         <v>30.859178714054199</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E10" s="5">
         <v>33.2467888155427</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F10" s="5">
         <v>27.873714826996999</v>
       </c>
-      <c r="F9">
-        <f>MAX(B9:E9)-MIN(B9:E9)</f>
+      <c r="G10" s="6">
+        <f>MAX(C10:F10)-MIN(C10:F10)</f>
         <v>5.373073988545702</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C11" s="5">
         <v>32.018686010873999</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D11" s="5">
         <v>31.058889669629199</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E11" s="5">
         <v>27.094055341428799</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="5">
         <v>29.785167876989298</v>
       </c>
-      <c r="F10">
-        <f>MAX(B10:E10)-MIN(B10:E10)</f>
+      <c r="G11" s="6">
+        <f>MAX(C11:F11)-MIN(C11:F11)</f>
         <v>4.9246306694452002</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C13" s="5">
         <v>28.4150174650091</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D13" s="5">
         <v>27.8411393818518</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="5">
         <v>31.013666252436298</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="5">
         <v>30.287674397064599</v>
       </c>
-      <c r="F12">
-        <f>MAX(B12:E12)-MIN(B12:E12)</f>
+      <c r="G13" s="6">
+        <f>MAX(C13:F13)-MIN(C13:F13)</f>
         <v>3.1725268705844982</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C14" s="5">
         <v>27.622503006662399</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D14" s="5">
         <v>30.5020211218242</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E14" s="5">
         <v>32.108541730235302</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="5">
         <v>27.32443163764</v>
       </c>
-      <c r="F13">
-        <f>MAX(B13:E13)-MIN(B13:E13)</f>
+      <c r="G14" s="6">
+        <f>MAX(C14:F14)-MIN(C14:F14)</f>
         <v>4.7841100925953022</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C15" s="5">
         <v>29.786423226224802</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D15" s="5">
         <v>28.262455559181799</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E15" s="5">
         <v>28.2783496497862</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F15" s="5">
         <v>31.2302690611691</v>
       </c>
-      <c r="F14">
-        <f>MAX(B14:E14)-MIN(B14:E14)</f>
+      <c r="G15" s="6">
+        <f>MAX(C15:F15)-MIN(C15:F15)</f>
         <v>2.9678135019873011</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C16" s="5">
         <v>27.556454338285398</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D16" s="5">
         <v>28.128327738000099</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E16" s="5">
         <v>31.307174260559901</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F16" s="5">
         <v>30.565541159516499</v>
       </c>
-      <c r="F15">
-        <f>MAX(B15:E15)-MIN(B15:E15)</f>
+      <c r="G16" s="6">
+        <f>MAX(C16:F16)-MIN(C16:F16)</f>
         <v>3.7507199222745022</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C18" s="5">
         <v>30.152449712263799</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D18" s="5">
         <v>29.194494781319399</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E18" s="5">
         <v>30.172701813214498</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F18" s="5">
         <v>28.8961630225634</v>
       </c>
-      <c r="F17">
-        <f>MAX(B17:E17)-MIN(B17:E17)</f>
+      <c r="G18" s="6">
+        <f>MAX(C18:F18)-MIN(C18:F18)</f>
         <v>1.2765387906510988</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C19" s="5">
         <v>28.928379657640001</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D19" s="5">
         <v>29.794742823533099</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E19" s="5">
         <v>30.611099645784702</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F19" s="5">
         <v>29.081587202403199</v>
       </c>
-      <c r="F18">
-        <f>MAX(B18:E18)-MIN(B18:E18)</f>
+      <c r="G19" s="6">
+        <f>MAX(C19:F19)-MIN(C19:F19)</f>
         <v>1.6827199881447008</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C20" s="5">
         <v>29.369365192275801</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D20" s="5">
         <v>31.0729587118932</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E20" s="5">
         <v>30.3930907828491</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F20" s="5">
         <v>27.580394642342998</v>
       </c>
-      <c r="F19">
-        <f>MAX(B19:E19)-MIN(B19:E19)</f>
+      <c r="G20" s="6">
+        <f>MAX(C20:F20)-MIN(C20:F20)</f>
         <v>3.4925640695502018</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C21" s="5">
         <v>29.7380709248323</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D21" s="5">
         <v>30.6546525605985</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E21" s="5">
         <v>27.918590509567299</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F21" s="5">
         <v>30.104495334363101</v>
       </c>
-      <c r="F20">
-        <f>MAX(B20:E20)-MIN(B20:E20)</f>
+      <c r="G21" s="6">
+        <f>MAX(C21:F21)-MIN(C21:F21)</f>
         <v>2.736062051031201</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+    <row r="23" spans="1:7">
+      <c r="B23" s="1"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="1"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="1"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="1"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="1"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="1"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="1"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="1"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:E5">
+  <mergeCells count="4">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A17:G17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C3:F6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:F11">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:F16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:F26">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2339,7 +2451,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E10">
+  <conditionalFormatting sqref="C28:F31">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2351,50 +2463,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:E15">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:E25">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:E30">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:E20">
+  <conditionalFormatting sqref="C18:F21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -2433,7 +2509,7 @@
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
